--- a/DeepLearningWithLabVIEW/晨光项目/代码/按键逻辑.xlsx
+++ b/DeepLearningWithLabVIEW/晨光项目/代码/按键逻辑.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGithub\DeepLearningForImage\DeepLearningWithLabVIEW\晨光项目\代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235771DB-BD18-4DFC-AFE8-10A7EDAE7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40E4D5-13A5-492E-AE62-F2C93F2DC225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始标注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +97,9 @@
   <si>
     <t>2023.3.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
   </si>
 </sst>
 </file>
@@ -443,23 +438,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -469,22 +470,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -492,137 +493,121 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DeepLearningWithLabVIEW/晨光项目/代码/按键逻辑.xlsx
+++ b/DeepLearningWithLabVIEW/晨光项目/代码/按键逻辑.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGithub\DeepLearningForImage\DeepLearningWithLabVIEW\晨光项目\代码\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGithub\DeepLearningForImage\DeepLearningWithLabVIEW\内窥缺陷检测项目\内窥缺陷检测软件\参考代码\复材超声C扫缺陷分析评定软件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40E4D5-13A5-492E-AE62-F2C93F2DC225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8812F282-5B1C-49F9-8BB8-BF614DB18794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="975" windowWidth="24435" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,9 +97,6 @@
   <si>
     <t>2023.3.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
   </si>
 </sst>
 </file>
@@ -441,7 +438,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,16 +447,10 @@
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
